--- a/data/qna/디자인조형학과.xlsx
+++ b/data/qna/디자인조형학과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,102 +458,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>전과</t>
+          <t>디자인조형학과</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>안녕하십니까~! 언제나 너의 곁에 WE-DEU💙
-동의대학교 입학홍보대사 박세원 입니다!
-동의대학교 다인조형학과에 대해 관심을 가져주셔서 정말 감사합니다!
-저의 동의대학교는 전과제도가 유연하여 여석만 있다면 전과가 가능합니다😊 (모집중지학과, 한의과대학, 의료보건계열(의료경영학과 제외), 조기취업계약학과 제외) 따라서 실기 시험은 따로 필요 없습니다! 다만 디자인조형학과 여석자리가 3자리가 있고 5명이 전과 신청을 할 경우, 학점을 통해 심사하여 발표가 이루어집니다:) 이 점 유의하시기 바랍니다!
-저의 답변이 작성자님에게 도움이 됐으면 좋겠습니다~!
-또 다른 궁금하신 점이 있으시다면
-동의대학교 WE-DEU 네이버카페, 인스타그램을 통해 편하게 질문해주세요!🎀
-✨동의대학교 WE-DEU는 질문자님의 반짝반짝 빛나는 꿈을 응원하겠습니다. 감사합니다!✨</t>
+          <t>골라주세요 제발..</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>동의대 공예디자인
+울산대 섬유디자인
+어딜가야할까요,,,,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>섬유,가죽,금속을 다 배울수있는곳은 동의대입니다</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>전체적인 분위기</t>
+          <t>디자인조형학과</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>열심히 하려는 사람들만 열심히 합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>동의대학교 취업</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>신발쪽으로 밀어주는거 사실이고 근데 사실상 하기나름이예요 저도 학교다니면서 꾸준히 따로 인테리어자격증 공부하고 있어요.근데 왠만하면 인테리어 미는쪽으로 가세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1인실 기숙사  있는지요?</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>효긱에 1인실 있는데 2학년부터 들어갈 수 있고 경쟁률 빡세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>동의대 공예</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>취업은 어딜가든 본인이 노력해야하는 부분이고 포토샵 일러스트 3D프로그램 가죽 금속수업해요 실습쪽 원하고 성실하면 공예가 맞을거고 컴퓨터 중점적인 수업 원하면 공예는 힘들어요</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>골라주세요 제발..</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>섬유,가죽,금속을 다 배울수있는곳은 동의대입니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>동의대vs대가대</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>대학 네임으로는 동의대가 대가대랑 붙어야되는 급은 아닙니다...
-더 끌리는 학과가세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
           <t>동의대학교 시각디자인과</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>안녕하세요 동의대학교 시각디자인과 제작년에는 예비 몇 번까지 빠졌는지 알 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다🤍
@@ -564,13 +516,23 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>동의대학교 시각디자인과 예비 5번</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>동의대학교 시각디자인과 예비 5번 받았는데 작년에 예비 몇 번까지 빠졌고, 이번에는 몇 번까지 빠질까요?ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 we deu🤍
 동의대학교 입학홍보대사 김화영입니다!
@@ -587,13 +549,23 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>공예과 실기 예비18번</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>공예과 실기 예비18번 인데 작년추가합격을 보니 40번까지 붙었던데 가능성 있을까요 수시입니다ㅜ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>동의대학교 입학홍보대사 김유정입니다🤍
 2022학년도 디자인조형학과(공예디자인) 수시 실기/실적(실기우수자) 전형결과를 알려드리겠습니다 :) 
@@ -612,13 +584,23 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>디자인조형학과</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>디자인조형학과도 실기가 있나요? 있다면 반영비율이 어떻게 되나요??</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다 :&gt;
 동의대학교 디자인조형학과는 실기가 있으며
@@ -641,57 +623,25 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>시디 어떤가요?</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>지원 안해줌ㅋㅋㅋㅋㅋ동서대 가세영..</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>이번에 산디들어가는 새내기인데</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>주로 신발쪽을 밀어주는 경향이 학년 지날수록 강해집니다! 
-1학년땐 기본 스킬을 익히긴 하디만 아무래도 이론수업이 월등히 많습니다. 또 기본 형태를 만들기도 해요.. 최근 과제전을 보니 수업 커리큘럼이 조금 변화한 거 같습니다.
-형태어쩌구 수업있는데 약간 과학시간 같기도 해요 
-프로그램은 2학기때부터 배웁니다 2D 디자인이라고 일러스트레이터를 배우는데 제품 판넬을 만들어볼 수 있는 수업이에요
-2학년 때 본격적으로 3D 디자인 프로그램인 라이노를 배웁니다. 이건 저도 아직 어려워하는 프로그램.. 미리 유튜브나 강의 좀 보시는 거 추천드려요! 신발공학개론도 배우는데 교수진이 어떻게 될지 모르기에 자세히 답하긴 어려운 감이 있지만 기본적으로 신발의 종류, 부위별 명칭들을 배웁니다. 트렌드도 가르치고요.
-서비스 디자인, 유니버셜 디자인 등도 있고 제품 사진 수업도 있습니다. 갠적으로 사진 수업 교수님 되게 좋았어요. 
-서비스 디자인엔 아마 청소기 조별 활동이 있을수도 있어요 글구 이 교수님께서 디자인 방법론이라는 디자인에 대한 여러 접근 방법 이론을 가르치실겁니다ㅏ!
-2학년 땐 캐드라고 인테리어 도면 작업하는 시간도 있답니다
-3학년은.. 진짜 본격적으로 힘들어지는.. 괜히 사망년이 아니겠죠..? 이때부터 조별 인테리어수업을 진행하고 퍼니쳐 디자인이라는 가구 수업도 있습니다! 3학년부턴 전필은 거의 끝나있기에 빼셔도 됩니다.
-제품수업은 조별로 짜여졌고 1학기 2학기 연계해서 수업하셨어요. 실물 작업까지 다 합니다
-3D 디자인은 이제 졸작 준비를 해서인지 올해부턴 도색까지 다 해서 개인제품을 만들었습니다. 1학기엔 그냥 뽑아서 조립했는데 이건 조별이었어요! 랜덤으로 뽑혔답니다
-산학연계학이라고 외부업체와 함께하는 프로젝트도 있었고 4학년 신발 교수님이 담당하셔서 그런지 신발 관련 프로젝트도 있었어요 
-팀플 갠플 둘 다 있습니다 1학기땐 팀플이었고 2학기땐 갠플이었어요 
-프로그램쪽으론 라이노, 포토샵, 일러스트, 캐드 등을 배우고 따로 요청해서 배울 수 있는 쓰리디 맥스도 (브이레이와 연관) 있구요 (근데 사실 거의 독학..)
-제품 스케치 기법도 배우긴 합니다. 
-졸전은 인테리어, 제품, 신발 등 총 3개로 이루어지며 공모전 나가기도 해요! 
-아무래도 신발 쪽으로 밀어주다 보니 다른 과목은 조금 소홀하지 않나 싶기도 합니다.. 
-또 교수진이 4학년땐 거의 물갈이되어서 이전 학년과 조금 커리큘럼 차이가 보일수도 있고 교수님과 스타일이 안 맞을수도 있어요. 
-산디하시다가 정 안 맞는다 싶으면 타 파트 전과도 가능하며 편입도 당연히 가능합니다!
-여기까지 제가 아는 선에서 답드렸습니다!
-입학 정말 축하드리고 너무 걱정마셔요 화이팅!</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>정시 실기 공예디자인학과 작년에 후보 몇번까지 빠졌는지 알수있을까요?</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>안녕하세요
+정시 실기 공예디자인학과 지원했는데
+작년에 후보 몇번까지 빠졌는지 알수있을까요?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다🤍
@@ -708,189 +658,142 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>동의대 미대</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>산디나 시디 지원할거같은데
+동의대 미대 괜찮나요 ?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>동명 vs 동의</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>디자인과 어디가 더 나은가요ㅠㅠ..</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>동명이요….? 진짜 진지하게 동명이랑 여길 비교하는건 
 동명은 아니라고봅니다…</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>동의대 공예디자인</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>과제가 많아서 야작하면서 다 친해져요~ 수업분위기는 대체로 자유롭고 교수님들은 몇분은 너무 좋고 몇분은 그냥 그런데 배우는 건 많아서 만족하실 거에요 가방만들고 금속쥬얼리 만들고 관심있으시면 잘 맞으실 거에요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>예비 10번</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>작년에 12명 뽑는데 120명? 정도 지원해서 예비 36번까지 빠졌고 올핸 20명 뽑는데 80명 지원했어요... 예비 10번 가능성 있을까요</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>예비 10번정도면 가능할듯요! !  합격하길 빌게용</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>공예디자인</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>지금 전문대에서 시디 전공중이고 공예쪽으로 배우고싶어서 공예디자인으로 편입 원하는데 동의대 공예디자인이 전체적으로 어떤지 궁금해요! 포폴이 걱정이긴 한데 지원해볼 예정이에요ㅜㅜ
+늦게 졸업할 각오하고 시디로 복수전공도 원하는데 복전은 어떤지도 궁금합니다!</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>어떻게보면 디자인조형학과 안에 시각파트랑 공예파트가 있는거라 복수 전공은 안되구요 그 전공 수업을 들을 수는 있어요 전공학점으로 인정됩니당</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>동의대 시각디자인</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>학과 분위기는 그 학번마다 다를 수 있어요~ 대체로 좋은 편이라고 답변드릴게요! 수업 난이도는 따라갈 수 있을 정도의 난이도 입니다. 어려운건 어렵고 그렇죠!</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>디자인과 1학년 초반부터 노트북필요한가요?</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>노트북은 눈치보다가 개강하고 한달쯤 뒤에 사도 문제없어요 주변분들이 뭘 사는지 보고 다른사람보다 맥이 비싸다 싶으면 주변분들이 쓰는거 사도되고.. 근데 디자인과는 색에 민감해서 색감에서는 맥이 좋긴함 아이패드는 굳이 필요없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>학교 근처에서 알바 가능한가요?</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>절대 못 함 피곤해서 죽을 수도 있어요</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>전과 어렵나요??</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>동의대 공대 디자인학부에 추합이 됐는데
+저는 영상계열을 희망해서 커리큘럼을 봤는데 영상도 조금 배우는것 같더라구요..
+동의대 공대에서 미대로 전과가 어려운가요..?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>영상계열이면 디지털 콘텐츠 추천 드려요 저희학교 디자인과가  좀 종합적으로 다 배운다는 느낌이 강해서 본인전공만 하는게 아니라 좀 많이 다양하게해서 엄청 힘들어요 전과는 할 수 있는데 그런경우가 잘 없어서 많이 힘들꺼에요.</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1학년때 배우는 영어</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>기본영어랑 실용영어 배우는데 완~~전 기초부터 배워요. 실용영어는 원어민 교수님이랑 하고 기본영어는 한국인 교수님이랑 해요. 문법 같은 것도 쉬운데 생각보다 기억이 안 나더라고요...</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>디자인조형학과</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>동의대 vs 동서대</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>마음은 동의대인데 동서대가 지원잘해준다 그래서 결정을못하고있어요ㅠㅠ̑̈ㅠ̑̈ 동의대 디자인쪽에서 지원해주는거 있나요 ?̊̈동서동의 비슷할거같긴한데 그래도 뭔가 좀 더 높은 동의대가 가는게 낫지않나 싶기도하고.... 동의대 동서대중 어디가는게 나을까요ㅠㅠㅠㅠ그리고 학점따기  쉽나욤...</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>동서가요
 디자인은 동서가 훨 좋아요
 학교 시설이랑 학생복지 이런게</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>환경조형 에서 인테리어 디자인 배우나요?</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>환경조형? 디조과 무슨파트말씀하시는건지 모르겠지만
- 산업디자인=3D
- 시각디자인=2D
-위주로 배웁니다 인테리어는 아마 산디쪽이 가깝지 않을까요?</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>디자인조형학과 수업형태나 미래에 대해 궁금합니다 ㅜㅜ</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1학년 때 전공 1개를 각 과별로 듣게 되고 나머지는 다 교양이고요 군기나 술자리 강요는 별로 없어요! 확실히 자신의 의사를 표현하면 강요하지 않습니다 오히려 먹지 말라고 하죠 ㅎ ㅎ 1학년 때 학점 따기 매우 쉬우니깐 본인이 열심히 하면 성적장학금까지 노려보셔도 될 거 같아요! 물론 본인이 열심히 하셔야겠죠? 그럼 열심히 하세요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>산업디자인 수업...선배들</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>걱정마세요. 스스로 노력하지 않는 한 선배들과의 교류 1도 없을 꺼예요. 저 1학년때부터 동기들과 느낀겁니다. 1학년때는 훈련같은 느낌이라 그냥 오셔도 됩니다만 실기 입시 했었잖아요? 그 실력 그대로 잘 유지하시면 2학년때부터 편하실꺼예요. 그림표현실력이요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>동의대학교 시각디자인 전공</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>학년별로 수업을 해서 전체수는 잘 모르겠어요. 복지제도는 음.. 엘레베이터 외에는 눈에 띄는게 없어요. 분위기는 선후배간 교류 크게 없고 강요적인 분위기는 아니예요.</t>
         </is>
       </c>
     </row>
